--- a/ofc/estimates/estimates/complete kalika mandir.xlsx
+++ b/ofc/estimates/estimates/complete kalika mandir.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\estimates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\estimates\estimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="just 15%" sheetId="18" r:id="rId1"/>
@@ -36,12 +36,12 @@
     <definedName name="description_6">[3]Abstract!$B$172</definedName>
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'just 15%'!$A$1:$K$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'just 15%'!$A$1:$K$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'just 15%'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -193,9 +193,6 @@
     <t>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</t>
   </si>
   <si>
-    <t>-Inner walls</t>
-  </si>
-  <si>
     <t>-for toilet</t>
   </si>
   <si>
@@ -232,13 +229,7 @@
     <t>-deduction for door</t>
   </si>
   <si>
-    <t># dL=dL= df]6fO{ d;Lgf] l;d]G6 3f]6\g] sfd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project:- कालिका भगवती मन्दिर परिसरमा विभिन्न भौतिक संरचना निर्माण </t>
-  </si>
-  <si>
-    <t>Date:2081/10/15</t>
   </si>
   <si>
     <t>husf] vf8ndf 9'+uf eg]{ / n]en ug]{ sfd</t>
@@ -290,21 +281,54 @@
     <t>PS</t>
   </si>
   <si>
-    <t>Provisional Sum for unforeseen worls in toilet and its fittings and plumbing works</t>
-  </si>
-  <si>
     <t>Knfi6/ dfly @) dL=dL= afSnf] emNn/ jf kfgL k§L agfpg] sfd</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>-1000 lit capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof top PVC water tank </t>
+  </si>
+  <si>
+    <t>for floors</t>
+  </si>
+  <si>
+    <t>-deduction for toilet pan</t>
+  </si>
+  <si>
+    <t>Provisional Sum for unforeseen works in toilet and its fittings and plumbing works</t>
+  </si>
+  <si>
+    <t>Ready made Teak wood Doors,ordinary (Seasoned and Poisoned treated) with all neccessary hardware all complete.</t>
+  </si>
+  <si>
+    <t>-door</t>
+  </si>
+  <si>
+    <t>-outer wall</t>
+  </si>
+  <si>
+    <t>-inner walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ps sf]6 k|fO{d/ ;lxt b'O{ sf]6 j]b/sf]6 k]G6 ug]{ sfd</t>
+  </si>
+  <si>
+    <t>Date:2082/02/07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,10 +426,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Preeti"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -487,9 +507,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,7 +517,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,14 +537,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +553,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,23 +571,22 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,18 +597,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -597,22 +616,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,15 +640,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,35 +666,56 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,27 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1274,135 +1293,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1437,12 +1456,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>52</v>
+      <c r="B9" s="62" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
@@ -1451,1500 +1470,1617 @@
       <c r="G9" s="23"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="21"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="B10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="35">
         <v>1</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <f>(10.75+1+1)/3.281</f>
         <v>3.8860103626943006</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <f>(8+1+2)/3.281</f>
         <v>3.3526363913441024</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39">
+      <c r="F10" s="37"/>
+      <c r="G10" s="38">
         <f>PRODUCT(C10:F10)</f>
         <v>13.028379759109207</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36">
+      <c r="B11" s="36"/>
+      <c r="C11" s="35">
         <v>-1</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <f>(3.27+10.75/3.281)+(2.46-0.23-0.23)+(8-0.75-0.75)/3.281</f>
         <v>10.527543431880524</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>0.23</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39">
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
         <f t="shared" ref="G11:G12" si="0">PRODUCT(C11:F11)</f>
         <v>-2.4213349893325207</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36">
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
         <v>-1</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <f>(8-0.75-0.75)/3.281</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <f>E11/2</f>
         <v>0.115</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>-0.22782688204815604</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="33">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="32">
         <f>SUM(G10:G12)</f>
         <v>10.379217887728529</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="33">
+      <c r="H13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="32">
         <v>915.42</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <f>G13*I13</f>
         <v>9501.3436387844504</v>
       </c>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37" t="s">
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="45">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="44">
         <f>0.13*G13*46827.87/100</f>
         <v>631.84766573269405</v>
       </c>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>47</v>
+      <c r="B16" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="F16" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="G16" s="65" t="s">
         <v>50</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>51</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="41"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="37" t="str">
+      <c r="B17" s="36" t="str">
         <f>B10</f>
         <v>-For roof slab</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <f>2*(TRUNC((D18-0.1)/0.15,0)+1)</f>
         <v>44</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <f>D10</f>
         <v>3.8860103626943006</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <f>PRODUCT(C17:E17)</f>
         <v>67.549414699673761</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <f>F17/1000</f>
         <v>6.7549414699673765E-2</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36">
+      <c r="B18" s="36"/>
+      <c r="C18" s="35">
         <f>2*2*(TRUNC((D17-0.1)/0.15,0)+1)</f>
         <v>104</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <f>E10</f>
         <v>3.3526363913441024</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <f>PRODUCT(C18:E18)</f>
         <v>137.7478260542367</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <f>F18/1000</f>
         <v>0.13774782605423669</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="33">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="32">
         <f>SUM(G17:G18)</f>
         <v>0.20529724075391045</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="33">
+      <c r="H19" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="32">
         <v>131940</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="43">
         <f>G19*I19</f>
         <v>27086.917945070945</v>
       </c>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37" t="s">
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="45">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="44">
         <f>0.13*G19*106200</f>
         <v>2834.3337058484876</v>
       </c>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="67">
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="66">
         <v>3</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37" t="str">
+      <c r="B22" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="36" t="str">
         <f>B17</f>
         <v>-For roof slab</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>1</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="42">
         <f>D10</f>
         <v>3.8860103626943006</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="42">
         <f>E10</f>
         <v>3.3526363913441024</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>0.1</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <f>PRODUCT(C23:F23)</f>
         <v>1.3028379759109208</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="37" t="s">
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="32">
         <f>SUM(G23:G23)</f>
         <v>1.3028379759109208</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <v>13568.9</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="43">
         <f>G24*I24</f>
         <v>17678.078211337692</v>
       </c>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37" t="s">
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="45">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="44">
         <f>0.13*G24*(9524.2)</f>
         <v>1613.1036285222031</v>
       </c>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>4</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="42">
+      <c r="B27" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="41">
         <v>2</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="42">
         <v>1.33</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="42">
         <v>0.23</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="42">
         <v>0.15</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="38">
         <f t="shared" ref="G28" si="1">PRODUCT(C28:F28)</f>
         <v>9.1770000000000004E-2</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="37" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="33">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="32">
         <f>SUM(G28:G28)</f>
         <v>9.1770000000000004E-2</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="32">
         <v>14362.76</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="43">
         <f>G29*I29</f>
         <v>1318.0704852000001</v>
       </c>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37" t="s">
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="45">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="44">
         <f>0.13*G29*10311.74</f>
         <v>123.02008937400001</v>
       </c>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="67">
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
         <v>5</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="B33" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="35">
         <v>1</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <f>1.97+2.46+((10.75-5.42)*2)/3.281+1.33+1.33</f>
         <v>10.339009448338921</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38">
+      <c r="E33" s="37"/>
+      <c r="F33" s="37">
         <f>7/3.281</f>
         <v>2.1334958854007922</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <f>PRODUCT(C33:F33)</f>
         <v>22.058234117151002</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="21"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="36">
+      <c r="B34" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="35">
         <v>-2</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <f>2.5/3.281</f>
         <v>0.76196281621456874</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38">
+      <c r="E34" s="37"/>
+      <c r="F34" s="37">
         <f>6/3.281</f>
         <v>1.8287107589149649</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <f>PRODUCT(C34:F34)</f>
         <v>-2.786819199809456</v>
       </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
       <c r="K34" s="21"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="36">
+      <c r="B35" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="35">
         <v>-2</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <f>2.5/3.281</f>
         <v>0.76196281621456874</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37">
         <f>1.083/3.281</f>
         <v>0.33008229198415112</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="38">
         <f>PRODUCT(C35:F35)</f>
         <v>-0.50302086556560677</v>
       </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
       <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="34">
+      <c r="C36" s="35"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="33">
         <f>SUM(G33:G35)</f>
         <v>18.768394051775939</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <v>405.86</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="44">
         <f>G36*I36</f>
         <v>7617.3404098537831</v>
       </c>
       <c r="K36" s="21"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="45">
+      <c r="C37" s="35"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="44">
         <f>0.13*G36*(11166.2/100)</f>
         <v>272.44313415922267</v>
       </c>
       <c r="K37" s="21"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="45"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="21"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-    </row>
-    <row r="39" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="67">
+    </row>
+    <row r="39" spans="1:11" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
         <v>6</v>
       </c>
-      <c r="B39" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="36">
-        <v>1</v>
-      </c>
-      <c r="D40" s="38">
-        <f>(8.5*4+4*4)/3.281</f>
-        <v>15.239256324291373</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38">
-        <v>1.8</v>
-      </c>
-      <c r="G40" s="39">
-        <f>PRODUCT(C40:F40)</f>
-        <v>27.430661383724473</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="B40" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="35">
+        <v>4</v>
+      </c>
+      <c r="D40" s="37">
+        <v>1.97</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G40" s="38">
+        <f t="shared" ref="G40:G41" si="2">PRODUCT(C40:F40)</f>
+        <v>11.82</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="21"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
-      <c r="B41" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="34">
-        <f>SUM(G40:G40)</f>
-        <v>27.430661383724473</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="40">
-        <v>279.02999999999997</v>
-      </c>
-      <c r="J41" s="45">
-        <f>G41*I41</f>
-        <v>7653.9774459006394</v>
-      </c>
-      <c r="K41" s="21"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="45">
-        <f>0.13*G41*(645.36/10)</f>
-        <v>230.13447119780557</v>
-      </c>
-      <c r="K42" s="21"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="21"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-    </row>
-    <row r="44" spans="1:19" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
-        <v>7</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="36">
+      <c r="B41" s="36"/>
+      <c r="C41" s="35">
         <v>4</v>
       </c>
-      <c r="D45" s="38">
-        <v>1.97</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38">
+      <c r="D41" s="37">
+        <v>1.33</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37">
         <v>1.5</v>
       </c>
-      <c r="G45" s="39">
-        <f t="shared" ref="G45:G46" si="2">PRODUCT(C45:F45)</f>
-        <v>11.82</v>
-      </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="36">
-        <v>4</v>
-      </c>
-      <c r="D46" s="38">
-        <v>1.33</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G46" s="39">
+      <c r="G41" s="38">
         <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="36">
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="35">
         <v>-2</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D42" s="37">
         <f>2.5/3.281</f>
         <v>0.76196281621456874</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38">
+      <c r="E42" s="37"/>
+      <c r="F42" s="37">
         <v>1.5</v>
       </c>
-      <c r="G47" s="39">
-        <f>PRODUCT(C47:F47)</f>
+      <c r="G42" s="38">
+        <f>PRODUCT(C42:F42)</f>
         <v>-2.2858884486437061</v>
       </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="35">
+        <v>2</v>
+      </c>
+      <c r="D43" s="37">
+        <v>1.33</v>
+      </c>
+      <c r="E43" s="37">
+        <v>1.97</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38">
+        <f>PRODUCT(C43:F43)</f>
+        <v>5.2402000000000006</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="35">
+        <v>-2</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38">
+        <f>PRODUCT(C44:F44)</f>
+        <v>-0.54</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="33">
+        <f>SUM(G40:G44)</f>
+        <v>22.214311551356296</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="39">
+        <v>2807.39</v>
+      </c>
+      <c r="J45" s="44">
+        <f>G45*I45</f>
+        <v>62364.236106162149</v>
+      </c>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="44">
+        <f>0.13*G45*(8008.95/10)</f>
+        <v>2312.8730364900553</v>
+      </c>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="44"/>
       <c r="K47" s="21"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="34">
-        <f>SUM(G45:G47)</f>
-        <v>17.514111551356294</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="40">
-        <v>2807.39</v>
-      </c>
-      <c r="J48" s="45">
-        <f>G48*I48</f>
-        <v>49168.941628162145</v>
-      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>7</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="21"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-    </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="45">
-        <f>0.13*G48*(8008.95/10)</f>
-        <v>1823.5053682200548</v>
-      </c>
-      <c r="K49" s="21"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-    </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="21"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-    </row>
-    <row r="51" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
-        <v>8</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="21"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="37" t="str">
+      <c r="B49" s="36" t="str">
         <f>B10</f>
         <v>-For roof slab</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C49" s="35">
         <v>1</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D49" s="37">
         <f>D10*2+E10*2</f>
         <v>14.477293508076805</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39">
-        <f>PRODUCT(C52:F52)</f>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38">
+        <f>PRODUCT(C49:F49)</f>
         <v>14.477293508076805</v>
       </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="33">
+        <f>SUM(G49)</f>
+        <v>14.477293508076805</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="39">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="J50" s="44">
+        <f>G50*I50</f>
+        <v>1989.9039926851567</v>
+      </c>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="44">
+        <f>0.13*G50*(97.64)</f>
+        <v>183.7631819567205</v>
+      </c>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="44"/>
       <c r="K52" s="21"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="37" t="s">
+    </row>
+    <row r="53" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>8</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="35">
+        <v>1</v>
+      </c>
+      <c r="D54" s="37">
+        <f>2.37+2.4+(10.75)/3.281</f>
+        <v>8.0464401097226457</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37">
+        <v>2.1</v>
+      </c>
+      <c r="G54" s="38">
+        <f>PRODUCT(C54:F54)</f>
+        <v>16.897524230417556</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="35">
+        <v>1</v>
+      </c>
+      <c r="D55" s="37">
+        <f>8/3.281</f>
+        <v>2.4382810118866196</v>
+      </c>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37">
+        <f>2.1-1.1</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="38">
+        <f>PRODUCT(C55:F55)</f>
+        <v>2.4382810118866196</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="35">
+        <v>1</v>
+      </c>
+      <c r="D56" s="37">
+        <f>(1.33+1.97+1.97+1.33)*2</f>
+        <v>13.2</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="G56" s="38">
+        <f>PRODUCT(C56:F56)</f>
+        <v>7.919999999999999</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="35">
+        <f>-2*2</f>
+        <v>-4</v>
+      </c>
+      <c r="D57" s="37">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37">
+        <f>6/3.281</f>
+        <v>1.8287107589149649</v>
+      </c>
+      <c r="G57" s="38">
+        <f>PRODUCT(C57:F57)</f>
+        <v>-5.5736383996189121</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="35">
+        <f>-1*2</f>
+        <v>-2</v>
+      </c>
+      <c r="D58" s="37">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37">
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
+      </c>
+      <c r="G58" s="38">
+        <f>PRODUCT(C58:F58)</f>
+        <v>-1.1147276799237822</v>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="35">
+        <f>-1*2</f>
+        <v>-2</v>
+      </c>
+      <c r="D59" s="37">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37">
+        <f>1.083/3.281</f>
+        <v>0.33008229198415112</v>
+      </c>
+      <c r="G59" s="38">
+        <f>PRODUCT(C59:F59)</f>
+        <v>-0.50302086556560677</v>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="34">
-        <f>SUM(G49:G52)</f>
-        <v>14.477293508076805</v>
-      </c>
-      <c r="H53" s="40" t="s">
+      <c r="C60" s="35"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="33">
+        <f>SUM(G54:G59)</f>
+        <v>20.064418297195875</v>
+      </c>
+      <c r="H60" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="40">
-        <v>137.44999999999999</v>
-      </c>
-      <c r="J53" s="45">
-        <f>G53*I53</f>
-        <v>1989.9039926851567</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="37" t="s">
+      <c r="I60" s="39">
+        <v>251.77</v>
+      </c>
+      <c r="J60" s="44">
+        <f>G60*I60</f>
+        <v>5051.6185946850055</v>
+      </c>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="45">
-        <f>0.13*G53*(97.64)</f>
-        <v>183.7631819567205</v>
-      </c>
-      <c r="K54" s="21"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-    </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="21"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-    </row>
-    <row r="56" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="C61" s="35"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="44">
+        <f>0.13*G60*(12766/100)</f>
+        <v>332.98507317660329</v>
+      </c>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
         <v>9</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B63" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="35">
+        <v>2</v>
+      </c>
+      <c r="D64" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37">
+        <f>5.75/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="G64" s="38">
+        <f>PRODUCT(C64:F64)</f>
+        <v>2.1030173727522095</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="39">
+        <v>5513.08</v>
+      </c>
+      <c r="J64" s="44">
+        <f>G64*I64</f>
+        <v>11594.10301737275</v>
+      </c>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="44">
+        <f>0.13*G64*(3195.16)</f>
+        <v>873.53200853398346</v>
+      </c>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>10</v>
+      </c>
+      <c r="B67" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="35">
         <v>1</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="34">
-        <f t="shared" ref="G56" si="3">PRODUCT(C56:F56)</f>
+      <c r="D68" s="37">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38">
+        <f t="shared" ref="G68" si="3">PRODUCT(C68:F68)</f>
+        <v>1000</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="39">
+        <v>10</v>
+      </c>
+      <c r="J68" s="44">
+        <f>G68*I68</f>
+        <v>10000</v>
+      </c>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="44">
+        <f>0.13*J68</f>
+        <v>1300</v>
+      </c>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <v>11</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="19">
         <v>1</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I56" s="23">
-        <v>25000</v>
-      </c>
-      <c r="J56" s="34">
-        <f>G56*I56</f>
-        <v>25000</v>
-      </c>
-      <c r="K56" s="21"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-    </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="21"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-    </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
-        <v>10</v>
-      </c>
-      <c r="B58" s="30" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="33">
+        <f t="shared" ref="G71" si="4">PRODUCT(C71:F71)</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="23">
+        <v>26000</v>
+      </c>
+      <c r="J71" s="33">
+        <f>G71*I71</f>
+        <v>26000</v>
+      </c>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <v>12</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C73" s="19">
         <v>1</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="34">
-        <f t="shared" ref="G58" si="4">PRODUCT(C58:F58)</f>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="33">
+        <f t="shared" ref="G73" si="5">PRODUCT(C73:F73)</f>
         <v>1</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H73" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I73" s="23">
         <v>500</v>
       </c>
-      <c r="J58" s="34">
-        <f>G58*I58</f>
+      <c r="J73" s="33">
+        <f>G73*I73</f>
         <v>500</v>
       </c>
-      <c r="K58" s="21"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-    </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="21"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="46" t="s">
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41">
-        <f>SUM(J9:J58)</f>
-        <v>155226.72500200599</v>
-      </c>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="57"/>
-    </row>
-    <row r="62" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="50"/>
-      <c r="B62" s="29" t="s">
+      <c r="C75" s="46"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40">
+        <f>SUM(J9:J73)</f>
+        <v>191179.5139249459</v>
+      </c>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="56"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="49"/>
+      <c r="B77" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="70">
-        <f>J60</f>
-        <v>155226.72500200599</v>
-      </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="39">
+      <c r="C77" s="77">
+        <f>J75</f>
+        <v>191179.5139249459</v>
+      </c>
+      <c r="D77" s="77"/>
+      <c r="E77" s="38">
         <v>100</v>
       </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="55"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="56"/>
-      <c r="B63" s="29" t="s">
+      <c r="F77" s="50"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="54"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="73">
-        <v>135000</v>
-      </c>
-      <c r="D63" s="73"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="49"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="56"/>
-      <c r="B64" s="29" t="s">
+      <c r="C78" s="80">
+        <v>170000</v>
+      </c>
+      <c r="D78" s="80"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="48"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
+      <c r="B79" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="73">
-        <f>C63-C66-C67</f>
-        <v>128250</v>
-      </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="39">
-        <f>C64/C62*100</f>
-        <v>82.621082161169497</v>
-      </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="49"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="56"/>
-      <c r="B65" s="29" t="s">
+      <c r="C79" s="80">
+        <f>C78-C81-C82</f>
+        <v>161500</v>
+      </c>
+      <c r="D79" s="80"/>
+      <c r="E79" s="38">
+        <f>C79/C77*100</f>
+        <v>84.475578310865657</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="48"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="55"/>
+      <c r="B80" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="70">
-        <f>C62-C64</f>
-        <v>26976.725002005987</v>
-      </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="39">
-        <f>100-E64</f>
-        <v>17.378917838830503</v>
-      </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="49"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="56"/>
-      <c r="B66" s="29" t="s">
+      <c r="C80" s="77">
+        <f>C77-C79</f>
+        <v>29679.513924945903</v>
+      </c>
+      <c r="D80" s="77"/>
+      <c r="E80" s="38">
+        <f>100-E79</f>
+        <v>15.524421689134343</v>
+      </c>
+      <c r="F80" s="48"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="48"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="55"/>
+      <c r="B81" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="70">
-        <f>C63*0.03</f>
-        <v>4050</v>
-      </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="39">
+      <c r="C81" s="77">
+        <f>C78*0.03</f>
+        <v>5100</v>
+      </c>
+      <c r="D81" s="77"/>
+      <c r="E81" s="38">
         <v>3</v>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="49"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="56"/>
-      <c r="B67" s="29" t="s">
+      <c r="F81" s="48"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="48"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="B82" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="70">
-        <f>C63*0.02</f>
-        <v>2700</v>
-      </c>
-      <c r="D67" s="70"/>
-      <c r="E67" s="39">
+      <c r="C82" s="77">
+        <f>C78*0.02</f>
+        <v>3400</v>
+      </c>
+      <c r="D82" s="77"/>
+      <c r="E82" s="38">
         <v>2</v>
       </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="49"/>
-    </row>
-    <row r="68" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-    </row>
-    <row r="69" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="48"/>
+    </row>
+    <row r="83" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+    </row>
+    <row r="84" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2952,14 +3088,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2980,106 +3108,106 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="89" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="86" t="e">
+      <c r="C6" s="81" t="e">
         <f>F44</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3087,90 +3215,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="86" t="e">
+      <c r="J6" s="81" t="e">
         <f>I44</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="K6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="I7" s="83" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="I7" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="str">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="str">
         <f>'just 15%'!A6:F6</f>
         <v xml:space="preserve">Project:- कालिका भगवती मन्दिर परिसरमा विभिन्न भौतिक संरचना निर्माण </v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="I8" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="str">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="I8" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="str">
         <f>'just 15%'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="I9" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="I9" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="80" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -3189,15 +3317,15 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="e">
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B13" s="63" t="e">
+      <c r="B13" s="62" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -3229,7 +3357,7 @@
         <f>G13*H13</f>
         <v>#REF!</v>
       </c>
-      <c r="J13" s="28" t="e">
+      <c r="J13" s="27" t="e">
         <f>I13-F13</f>
         <v>#REF!</v>
       </c>
@@ -3239,9 +3367,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -3249,16 +3377,16 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="e">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>60</v>
+      <c r="B15" s="68" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="12" t="e">
         <f>'just 15%'!#REF!</f>
@@ -3288,15 +3416,15 @@
         <f>G15*H15</f>
         <v>#REF!</v>
       </c>
-      <c r="J15" s="28" t="e">
+      <c r="J15" s="27" t="e">
         <f>I15-F15</f>
         <v>#REF!</v>
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="68" t="e">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="67" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -3313,15 +3441,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="28" t="e">
+      <c r="J16" s="27" t="e">
         <f>I16-F16</f>
         <v>#REF!</v>
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -3329,15 +3457,15 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="28"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="e">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B18" s="69" t="e">
+      <c r="B18" s="68" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -3369,15 +3497,15 @@
         <f>G18*H18</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="28" t="e">
+      <c r="J18" s="27" t="e">
         <f>I18-F18</f>
         <v>#REF!</v>
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="68" t="e">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="67" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -3394,15 +3522,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J19" s="28" t="e">
+      <c r="J19" s="27" t="e">
         <f>I19-F19</f>
         <v>#REF!</v>
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -3410,15 +3538,15 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="28"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <f>'just 15%'!A9</f>
         <v>1</v>
       </c>
-      <c r="B21" s="69" t="str">
+      <c r="B21" s="68" t="str">
         <f>'just 15%'!B9</f>
         <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
       </c>
@@ -3450,15 +3578,15 @@
         <f>G21*H21</f>
         <v>#REF!</v>
       </c>
-      <c r="J21" s="28" t="e">
+      <c r="J21" s="27" t="e">
         <f>I21-F21</f>
         <v>#REF!</v>
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="68" t="str">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="67" t="str">
         <f>'just 15%'!B14</f>
         <v>VAT calculation</v>
       </c>
@@ -3475,15 +3603,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J22" s="28" t="e">
+      <c r="J22" s="27" t="e">
         <f>I22-F22</f>
         <v>#REF!</v>
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -3491,15 +3619,15 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="28"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <f>'just 15%'!A16</f>
         <v>2</v>
       </c>
-      <c r="B24" s="69" t="str">
+      <c r="B24" s="68" t="str">
         <f>'just 15%'!B16</f>
         <v xml:space="preserve">cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd </v>
       </c>
@@ -3531,15 +3659,15 @@
         <f>G24*H24</f>
         <v>#REF!</v>
       </c>
-      <c r="J24" s="28" t="e">
+      <c r="J24" s="27" t="e">
         <f>I24-F24</f>
         <v>#REF!</v>
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="68" t="str">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="67" t="str">
         <f>'just 15%'!B20</f>
         <v>VAT calculation</v>
       </c>
@@ -3556,15 +3684,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J25" s="28" t="e">
+      <c r="J25" s="27" t="e">
         <f>I25-F25</f>
         <v>#REF!</v>
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3572,15 +3700,15 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="28"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <f>'just 15%'!A22</f>
         <v>3</v>
       </c>
-      <c r="B27" s="69" t="str">
+      <c r="B27" s="68" t="str">
         <f>'just 15%'!B22</f>
         <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
       </c>
@@ -3612,7 +3740,7 @@
         <f>G27*H27</f>
         <v>#REF!</v>
       </c>
-      <c r="J27" s="28" t="e">
+      <c r="J27" s="27" t="e">
         <f>I27-F27</f>
         <v>#REF!</v>
       </c>
@@ -3622,9 +3750,9 @@
         <v>22097.597764172115</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="68" t="str">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="67" t="str">
         <f>'just 15%'!B25</f>
         <v>VAT calculation</v>
       </c>
@@ -3641,15 +3769,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J28" s="28" t="e">
+      <c r="J28" s="27" t="e">
         <f>I28-F28</f>
         <v>#REF!</v>
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3657,15 +3785,15 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="28"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="27">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <f>'just 15%'!A27</f>
         <v>4</v>
       </c>
-      <c r="B30" s="69" t="str">
+      <c r="B30" s="68" t="str">
         <f>'just 15%'!B27</f>
         <v>e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df</v>
       </c>
@@ -3697,7 +3825,7 @@
         <f>G30*H30</f>
         <v>#REF!</v>
       </c>
-      <c r="J30" s="28" t="e">
+      <c r="J30" s="27" t="e">
         <f>I30-F30</f>
         <v>#REF!</v>
       </c>
@@ -3707,9 +3835,9 @@
         <v>1647.5881065000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="32" t="str">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="31" t="str">
         <f>'just 15%'!B30</f>
         <v>VAT calculation</v>
       </c>
@@ -3726,15 +3854,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="28" t="e">
+      <c r="J31" s="27" t="e">
         <f>I31-F31</f>
         <v>#REF!</v>
       </c>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3742,15 +3870,15 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="28"/>
+      <c r="J32" s="27"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <f>'just 15%'!A32</f>
         <v>5</v>
       </c>
-      <c r="B33" s="69" t="str">
+      <c r="B33" s="68" t="str">
         <f>'just 15%'!B32</f>
         <v>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</v>
       </c>
@@ -3782,15 +3910,15 @@
         <f>G33*H33</f>
         <v>#REF!</v>
       </c>
-      <c r="J33" s="28" t="e">
+      <c r="J33" s="27" t="e">
         <f>I33-F33</f>
         <v>#REF!</v>
       </c>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="32" t="str">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="31" t="str">
         <f>'just 15%'!B37</f>
         <v>VAT calculation</v>
       </c>
@@ -3807,15 +3935,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J34" s="28" t="e">
+      <c r="J34" s="27" t="e">
         <f>I34-F34</f>
         <v>#REF!</v>
       </c>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3823,16 +3951,16 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="28"/>
+      <c r="J35" s="27"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="e">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B36" s="69" t="s">
-        <v>61</v>
+      <c r="B36" s="68" t="s">
+        <v>58</v>
       </c>
       <c r="C36" s="12" t="e">
         <f>'just 15%'!#REF!</f>
@@ -3862,15 +3990,15 @@
         <f>G36*H36</f>
         <v>#REF!</v>
       </c>
-      <c r="J36" s="28" t="e">
+      <c r="J36" s="27" t="e">
         <f>I36-F36</f>
         <v>#REF!</v>
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="32" t="e">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="31" t="e">
         <f>'just 15%'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -3887,15 +4015,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J37" s="28" t="e">
+      <c r="J37" s="27" t="e">
         <f>I37-F37</f>
         <v>#REF!</v>
       </c>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -3903,33 +4031,33 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="28"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="27">
-        <f>'just 15%'!A39</f>
-        <v>6</v>
-      </c>
-      <c r="B39" s="69" t="str">
-        <f>'just 15%'!B39</f>
-        <v># dL=dL= df]6fO{ d;Lgf] l;d]G6 3f]6\g] sfd</v>
-      </c>
-      <c r="C39" s="12" t="str">
-        <f>'just 15%'!H41</f>
-        <v>sqm</v>
-      </c>
-      <c r="D39" s="12">
-        <f>'just 15%'!G41</f>
-        <v>27.430661383724473</v>
-      </c>
-      <c r="E39" s="12">
-        <f>'just 15%'!I41</f>
-        <v>279.02999999999997</v>
-      </c>
-      <c r="F39" s="12">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B39" s="68" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C39" s="12" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="12" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="12" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F39" s="12" t="e">
         <f>D39*E39</f>
-        <v>7653.9774459006394</v>
+        <v>#REF!</v>
       </c>
       <c r="G39" s="12" t="e">
         <f>#REF!</f>
@@ -3943,24 +4071,24 @@
         <f>G39*H39</f>
         <v>#REF!</v>
       </c>
-      <c r="J39" s="28" t="e">
+      <c r="J39" s="27" t="e">
         <f>I39-F39</f>
         <v>#REF!</v>
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="32" t="str">
-        <f>'just 15%'!B42</f>
-        <v>VAT calculation</v>
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="31" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12">
-        <f>'just 15%'!J42</f>
-        <v>230.13447119780557</v>
+      <c r="F40" s="12" t="e">
+        <f>'just 15%'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -3968,15 +4096,15 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J40" s="28" t="e">
+      <c r="J40" s="27" t="e">
         <f>I40-F40</f>
         <v>#REF!</v>
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -3984,28 +4112,28 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="28"/>
+      <c r="J41" s="27"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27">
-        <f>'just 15%'!A58</f>
-        <v>10</v>
-      </c>
-      <c r="B42" s="31" t="str">
-        <f>'just 15%'!B58</f>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <f>'just 15%'!A73</f>
+        <v>12</v>
+      </c>
+      <c r="B42" s="30" t="str">
+        <f>'just 15%'!B73</f>
         <v>Information board (सुचना पाटि)</v>
       </c>
       <c r="C42" s="12" t="str">
-        <f>'just 15%'!H58</f>
+        <f>'just 15%'!H73</f>
         <v>no.</v>
       </c>
       <c r="D42" s="12">
-        <f>'just 15%'!G58</f>
+        <f>'just 15%'!G73</f>
         <v>1</v>
       </c>
       <c r="E42" s="12">
-        <f>'just 15%'!I58</f>
+        <f>'just 15%'!I73</f>
         <v>500</v>
       </c>
       <c r="F42" s="12">
@@ -4024,15 +4152,15 @@
         <f>G42*H42</f>
         <v>#REF!</v>
       </c>
-      <c r="J42" s="28" t="e">
+      <c r="J42" s="27" t="e">
         <f>I42-F42</f>
         <v>#REF!</v>
       </c>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4040,10 +4168,10 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="28"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
         <v>16</v>
@@ -4069,13 +4197,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4089,6 +4210,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
